--- a/Inputs33bc_shunt100.xlsx
+++ b/Inputs33bc_shunt100.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SETTING" sheetId="9" r:id="rId1"/>
@@ -679,7 +679,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>NAME</t>
   </si>
@@ -882,9 +882,6 @@
     <t>option_PF</t>
   </si>
   <si>
-    <t>100,1e3</t>
-  </si>
-  <si>
     <t>Qshunt[kvar]</t>
   </si>
   <si>
@@ -941,6 +938,15 @@
   <si>
     <t>100,1e-5</t>
   </si>
+  <si>
+    <t>100,1e3</t>
+  </si>
+  <si>
+    <t>Pdg</t>
+  </si>
+  <si>
+    <t>## DG_PROFILE_DATA</t>
+  </si>
 </sst>
 </file>
 
@@ -987,12 +993,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1000,6 +1000,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,28 +1033,28 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1577,7 +1583,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1624,7 +1630,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1638,10 +1644,10 @@
         <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1649,34 +1655,34 @@
       <c r="G7" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>86</v>
+      <c r="G8" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1689,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1732,19 +1738,19 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>31</v>
@@ -1759,19 +1765,19 @@
         <v>36</v>
       </c>
       <c r="P2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" t="s">
-        <v>70</v>
-      </c>
       <c r="S2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" t="s">
         <v>73</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>74</v>
-      </c>
-      <c r="U2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -1862,12 +1868,12 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
+        <v>50</v>
+      </c>
+      <c r="K4" s="13">
         <v>0</v>
       </c>
       <c r="R4">
@@ -1962,12 +1968,12 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
+        <v>80</v>
+      </c>
+      <c r="K6" s="13">
         <v>0</v>
       </c>
       <c r="R6">
@@ -2068,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="1"/>
@@ -2115,12 +2121,12 @@
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
+        <v>100</v>
+      </c>
+      <c r="K9" s="13">
         <v>0</v>
       </c>
       <c r="R9">
@@ -2165,12 +2171,12 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
+        <v>100</v>
+      </c>
+      <c r="K10" s="13">
         <v>0</v>
       </c>
       <c r="R10">
@@ -2202,7 +2208,7 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>120</v>
       </c>
       <c r="F11" s="1">
@@ -2252,7 +2258,7 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>120</v>
       </c>
       <c r="F12" s="1">
@@ -2461,10 +2467,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -2920,13 +2926,13 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
+      <c r="I26" s="13">
+        <v>600</v>
+      </c>
+      <c r="J26" s="13">
+        <v>175</v>
+      </c>
+      <c r="K26" s="13">
         <v>0</v>
       </c>
       <c r="R26">
@@ -2966,13 +2972,13 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
+      <c r="I27" s="13">
+        <v>600</v>
+      </c>
+      <c r="J27" s="13">
+        <v>175</v>
+      </c>
+      <c r="K27" s="13">
         <v>0</v>
       </c>
       <c r="R27">
@@ -3196,13 +3202,13 @@
       <c r="H32" s="1">
         <v>1</v>
       </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
+      <c r="I32" s="13">
+        <v>300</v>
+      </c>
+      <c r="J32" s="13">
+        <v>100</v>
+      </c>
+      <c r="K32" s="13">
         <v>0</v>
       </c>
       <c r="R32">
@@ -3243,12 +3249,12 @@
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
+        <v>75</v>
+      </c>
+      <c r="K33" s="13">
         <v>0</v>
       </c>
       <c r="R33">
@@ -3289,12 +3295,12 @@
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
+        <v>90</v>
+      </c>
+      <c r="K34" s="13">
         <v>0</v>
       </c>
       <c r="R34">
@@ -3373,6 +3379,13 @@
         <f t="shared" ref="F39:F49" si="7">F3*R3</f>
         <v>0</v>
       </c>
+      <c r="H39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39">
+        <f>A3</f>
+        <v>1</v>
+      </c>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
@@ -3387,6 +3400,18 @@
         <f t="shared" si="7"/>
         <v>168</v>
       </c>
+      <c r="H40" s="1">
+        <f>E4*0.75</f>
+        <v>150</v>
+      </c>
+      <c r="I40">
+        <f xml:space="preserve"> SQRT(0.0795/0.9205)*H40</f>
+        <v>44.082166133188437</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40:J71" si="8">A4</f>
+        <v>2</v>
+      </c>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
@@ -3401,6 +3426,18 @@
         <f t="shared" si="7"/>
         <v>112</v>
       </c>
+      <c r="H41" s="1">
+        <f t="shared" ref="H41:H77" si="9">E5*0.75</f>
+        <v>135</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41:I72" si="10" xml:space="preserve"> SQRT(0.0795/0.9205)*H41</f>
+        <v>39.673949519869595</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
@@ -3415,6 +3452,18 @@
         <f t="shared" si="7"/>
         <v>224</v>
       </c>
+      <c r="H42" s="1">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="10"/>
+        <v>52.898599359826122</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
@@ -3429,6 +3478,18 @@
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
+      <c r="H43" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="10"/>
+        <v>26.449299679913061</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
@@ -3443,6 +3504,18 @@
         <f t="shared" si="7"/>
         <v>56</v>
       </c>
+      <c r="H44" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="10"/>
+        <v>26.449299679913061</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
@@ -3457,6 +3530,18 @@
         <f t="shared" si="7"/>
         <v>280</v>
       </c>
+      <c r="H45" s="1">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="10"/>
+        <v>88.164332266376874</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
@@ -3471,6 +3556,18 @@
         <f t="shared" si="7"/>
         <v>280</v>
       </c>
+      <c r="H46" s="1">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="10"/>
+        <v>88.164332266376874</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
@@ -3485,6 +3582,18 @@
         <f t="shared" si="7"/>
         <v>56</v>
       </c>
+      <c r="H47" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="10"/>
+        <v>26.449299679913061</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
@@ -3499,6 +3608,18 @@
         <f t="shared" si="7"/>
         <v>56</v>
       </c>
+      <c r="H48" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="10"/>
+        <v>26.449299679913061</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="4:12" x14ac:dyDescent="0.3">
@@ -3513,6 +3634,18 @@
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
+      <c r="H49" s="1">
+        <f t="shared" si="9"/>
+        <v>67.5</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="10"/>
+        <v>19.836974759934797</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="4:12" x14ac:dyDescent="0.3">
@@ -3520,12 +3653,24 @@
         <v>12</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" ref="E50:E71" si="8">E14*R14</f>
+        <f t="shared" ref="E50:E71" si="11">E14*R14</f>
         <v>168</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" ref="F50:F72" si="9">F14*R14</f>
+        <f t="shared" ref="F50:F72" si="12">F14*R14</f>
         <v>98</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="10"/>
+        <v>26.449299679913061</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="L50" s="1"/>
     </row>
@@ -3534,12 +3679,24 @@
         <v>13</v>
       </c>
       <c r="E51" s="1">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="12"/>
+        <v>98</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="10"/>
+        <v>26.449299679913061</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="8"/>
-        <v>168</v>
-      </c>
-      <c r="F51" s="1">
-        <f t="shared" si="9"/>
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="L51" s="1"/>
     </row>
@@ -3548,12 +3705,24 @@
         <v>14</v>
       </c>
       <c r="E52" s="1">
+        <f t="shared" si="11"/>
+        <v>336</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="12"/>
+        <v>224</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="10"/>
+        <v>52.898599359826122</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="8"/>
-        <v>336</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" si="9"/>
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="L52" s="1"/>
     </row>
@@ -3562,12 +3731,24 @@
         <v>15</v>
       </c>
       <c r="E53" s="1">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="10"/>
+        <v>26.449299679913061</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="8"/>
-        <v>168</v>
-      </c>
-      <c r="F53" s="1">
-        <f t="shared" si="9"/>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L53" s="1"/>
     </row>
@@ -3576,12 +3757,24 @@
         <v>16</v>
       </c>
       <c r="E54" s="1">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="10"/>
+        <v>26.449299679913061</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="8"/>
-        <v>168</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" si="9"/>
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="L54" s="1"/>
     </row>
@@ -3590,12 +3783,24 @@
         <v>17</v>
       </c>
       <c r="E55" s="1">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="10"/>
+        <v>26.449299679913061</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="8"/>
-        <v>168</v>
-      </c>
-      <c r="F55" s="1">
-        <f t="shared" si="9"/>
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="L55" s="1"/>
     </row>
@@ -3604,12 +3809,24 @@
         <v>18</v>
       </c>
       <c r="E56" s="1">
+        <f t="shared" si="11"/>
+        <v>251.99999999999997</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="12"/>
+        <v>112</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="9"/>
+        <v>135</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="10"/>
+        <v>39.673949519869595</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="8"/>
-        <v>251.99999999999997</v>
-      </c>
-      <c r="F56" s="1">
-        <f t="shared" si="9"/>
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="L56" s="1"/>
     </row>
@@ -3618,12 +3835,24 @@
         <v>19</v>
       </c>
       <c r="E57" s="1">
+        <f t="shared" si="11"/>
+        <v>251.99999999999997</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="12"/>
+        <v>112</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="9"/>
+        <v>135</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="10"/>
+        <v>39.673949519869595</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="8"/>
-        <v>251.99999999999997</v>
-      </c>
-      <c r="F57" s="1">
-        <f t="shared" si="9"/>
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="L57" s="1"/>
     </row>
@@ -3632,12 +3861,24 @@
         <v>20</v>
       </c>
       <c r="E58" s="1">
+        <f t="shared" si="11"/>
+        <v>251.99999999999997</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="12"/>
+        <v>112</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="9"/>
+        <v>135</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="10"/>
+        <v>39.673949519869595</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="8"/>
-        <v>251.99999999999997</v>
-      </c>
-      <c r="F58" s="1">
-        <f t="shared" si="9"/>
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="L58" s="1"/>
     </row>
@@ -3646,12 +3887,24 @@
         <v>21</v>
       </c>
       <c r="E59" s="1">
+        <f t="shared" si="11"/>
+        <v>251.99999999999997</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="12"/>
+        <v>112</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="9"/>
+        <v>135</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="10"/>
+        <v>39.673949519869595</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="8"/>
-        <v>251.99999999999997</v>
-      </c>
-      <c r="F59" s="1">
-        <f t="shared" si="9"/>
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="L59" s="1"/>
     </row>
@@ -3660,12 +3913,24 @@
         <v>22</v>
       </c>
       <c r="E60" s="1">
+        <f t="shared" si="11"/>
+        <v>251.99999999999997</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="12"/>
+        <v>112</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="9"/>
+        <v>135</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="10"/>
+        <v>39.673949519869595</v>
+      </c>
+      <c r="J60">
         <f t="shared" si="8"/>
-        <v>251.99999999999997</v>
-      </c>
-      <c r="F60" s="1">
-        <f t="shared" si="9"/>
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="L60" s="1"/>
     </row>
@@ -3674,12 +3939,24 @@
         <v>23</v>
       </c>
       <c r="E61" s="1">
+        <f t="shared" si="11"/>
+        <v>251.99999999999997</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="9"/>
+        <v>135</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="10"/>
+        <v>39.673949519869595</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="8"/>
-        <v>251.99999999999997</v>
-      </c>
-      <c r="F61" s="1">
-        <f t="shared" si="9"/>
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="L61" s="1"/>
     </row>
@@ -3688,12 +3965,23 @@
         <v>24</v>
       </c>
       <c r="E62" s="1">
+        <f t="shared" si="11"/>
+        <v>1176</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="12"/>
+        <v>560</v>
+      </c>
+      <c r="H62" s="1">
+        <v>600</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="10"/>
+        <v>176.32866453275375</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="8"/>
-        <v>1176</v>
-      </c>
-      <c r="F62" s="1">
-        <f t="shared" si="9"/>
-        <v>560</v>
+        <v>24</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -3702,12 +3990,24 @@
         <v>25</v>
       </c>
       <c r="E63" s="1">
+        <f t="shared" si="11"/>
+        <v>1176</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="12"/>
+        <v>560</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="9"/>
+        <v>630</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="10"/>
+        <v>185.14509775939143</v>
+      </c>
+      <c r="J63">
         <f t="shared" si="8"/>
-        <v>1176</v>
-      </c>
-      <c r="F63" s="1">
-        <f t="shared" si="9"/>
-        <v>560</v>
+        <v>25</v>
       </c>
       <c r="L63" s="1"/>
     </row>
@@ -3716,12 +4016,24 @@
         <v>26</v>
       </c>
       <c r="E64" s="1">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="10"/>
+        <v>26.449299679913061</v>
+      </c>
+      <c r="J64">
         <f t="shared" si="8"/>
-        <v>168</v>
-      </c>
-      <c r="F64" s="1">
-        <f t="shared" si="9"/>
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="L64" s="1"/>
     </row>
@@ -3730,12 +4042,24 @@
         <v>27</v>
       </c>
       <c r="E65" s="1">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="10"/>
+        <v>26.449299679913061</v>
+      </c>
+      <c r="J65">
         <f t="shared" si="8"/>
-        <v>168</v>
-      </c>
-      <c r="F65" s="1">
-        <f t="shared" si="9"/>
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="L65" s="1"/>
     </row>
@@ -3744,12 +4068,24 @@
         <v>28</v>
       </c>
       <c r="E66" s="1">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="10"/>
+        <v>26.449299679913061</v>
+      </c>
+      <c r="J66">
         <f t="shared" si="8"/>
-        <v>168</v>
-      </c>
-      <c r="F66" s="1">
-        <f t="shared" si="9"/>
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="L66" s="1"/>
     </row>
@@ -3758,12 +4094,24 @@
         <v>29</v>
       </c>
       <c r="E67" s="1">
+        <f t="shared" si="11"/>
+        <v>336</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="12"/>
+        <v>196</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="10"/>
+        <v>52.898599359826122</v>
+      </c>
+      <c r="J67">
         <f t="shared" si="8"/>
-        <v>336</v>
-      </c>
-      <c r="F67" s="1">
-        <f t="shared" si="9"/>
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="L67" s="1"/>
     </row>
@@ -3772,12 +4120,24 @@
         <v>30</v>
       </c>
       <c r="E68" s="1">
+        <f t="shared" si="11"/>
+        <v>560</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="12"/>
+        <v>1680</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="10"/>
+        <v>88.164332266376874</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="8"/>
-        <v>560</v>
-      </c>
-      <c r="F68" s="1">
-        <f t="shared" si="9"/>
-        <v>1680</v>
+        <v>30</v>
       </c>
       <c r="L68" s="1"/>
     </row>
@@ -3786,12 +4146,24 @@
         <v>31</v>
       </c>
       <c r="E69" s="1">
+        <f t="shared" si="11"/>
+        <v>420</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="12"/>
+        <v>196</v>
+      </c>
+      <c r="H69" s="1">
+        <f>250</f>
+        <v>250</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="10"/>
+        <v>73.47027688864739</v>
+      </c>
+      <c r="J69">
         <f t="shared" si="8"/>
-        <v>420</v>
-      </c>
-      <c r="F69" s="1">
-        <f t="shared" si="9"/>
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="L69" s="1"/>
     </row>
@@ -3800,12 +4172,23 @@
         <v>32</v>
       </c>
       <c r="E70" s="1">
+        <f t="shared" si="11"/>
+        <v>588</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="12"/>
+        <v>280</v>
+      </c>
+      <c r="H70" s="1">
+        <v>300</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="10"/>
+        <v>88.164332266376874</v>
+      </c>
+      <c r="J70">
         <f t="shared" si="8"/>
-        <v>588</v>
-      </c>
-      <c r="F70" s="1">
-        <f t="shared" si="9"/>
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="L70" s="1"/>
     </row>
@@ -3814,12 +4197,24 @@
         <v>33</v>
       </c>
       <c r="E71" s="1">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="12"/>
+        <v>112</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="10"/>
+        <v>26.449299679913061</v>
+      </c>
+      <c r="J71">
         <f t="shared" si="8"/>
-        <v>168</v>
-      </c>
-      <c r="F71" s="1">
-        <f t="shared" si="9"/>
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="L71" s="1"/>
     </row>
@@ -3829,7 +4224,7 @@
         <v>10402</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L72" s="1"/>
@@ -3857,8 +4252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3946,7 +4341,7 @@
       <c r="J3" s="1">
         <v>220</v>
       </c>
-      <c r="K3" s="9" t="e">
+      <c r="K3" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B3,",",C3,",""1""",",[_i,_i,_i,_i,_i,_i],[",G3/$C$1,",",H3/$C$1,",",I3*$C$1*0.000001,",",J3*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -3982,7 +4377,7 @@
       <c r="J4" s="1">
         <v>220</v>
       </c>
-      <c r="K4" s="9" t="e">
+      <c r="K4" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B4,",",C4,",""1""",",[_i,_i,_i,_i,_i,_i],[",G4/$C$1,",",H4/$C$1,",",I4*$C$1*0.000001,",",J4*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4018,7 +4413,7 @@
       <c r="J5" s="1">
         <v>220</v>
       </c>
-      <c r="K5" s="9" t="e">
+      <c r="K5" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B5,",",C5,",""1""",",[_i,_i,_i,_i,_i,_i],[",G5/$C$1,",",H5/$C$1,",",I5*$C$1*0.000001,",",J5*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4054,7 +4449,7 @@
       <c r="J6" s="1">
         <v>220</v>
       </c>
-      <c r="K6" s="9" t="e">
+      <c r="K6" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B6,",",C6,",""1""",",[_i,_i,_i,_i,_i,_i],[",G6/$C$1,",",H6/$C$1,",",I6*$C$1*0.000001,",",J6*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4072,7 +4467,7 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
@@ -4090,7 +4485,7 @@
       <c r="J7" s="1">
         <v>220</v>
       </c>
-      <c r="K7" s="9" t="e">
+      <c r="K7" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B7,",",C7,",""1""",",[_i,_i,_i,_i,_i,_i],[",G7/$C$1,",",H7/$C$1,",",I7*$C$1*0.000001,",",J7*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4126,7 +4521,7 @@
       <c r="J8" s="1">
         <v>220</v>
       </c>
-      <c r="K8" s="9" t="e">
+      <c r="K8" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B8,",",C8,",""1""",",[_i,_i,_i,_i,_i,_i],[",G8/$C$1,",",H8/$C$1,",",I8*$C$1*0.000001,",",J8*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4162,7 +4557,7 @@
       <c r="J9" s="1">
         <v>220</v>
       </c>
-      <c r="K9" s="9" t="e">
+      <c r="K9" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B9,",",C9,",""1""",",[_i,_i,_i,_i,_i,_i],[",G9/$C$1,",",H9/$C$1,",",I9*$C$1*0.000001,",",J9*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4198,7 +4593,7 @@
       <c r="J10" s="1">
         <v>220</v>
       </c>
-      <c r="K10" s="9" t="e">
+      <c r="K10" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B10,",",C10,",""1""",",[_i,_i,_i,_i,_i,_i],[",G10/$C$1,",",H10/$C$1,",",I10*$C$1*0.000001,",",J10*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4234,7 +4629,7 @@
       <c r="J11" s="1">
         <v>220</v>
       </c>
-      <c r="K11" s="9" t="e">
+      <c r="K11" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B11,",",C11,",""1""",",[_i,_i,_i,_i,_i,_i],[",G11/$C$1,",",H11/$C$1,",",I11*$C$1*0.000001,",",J11*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4270,7 +4665,7 @@
       <c r="J12" s="1">
         <v>220</v>
       </c>
-      <c r="K12" s="9" t="e">
+      <c r="K12" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B12,",",C12,",""1""",",[_i,_i,_i,_i,_i,_i],[",G12/$C$1,",",H12/$C$1,",",I12*$C$1*0.000001,",",J12*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4306,7 +4701,7 @@
       <c r="J13" s="1">
         <v>220</v>
       </c>
-      <c r="K13" s="9" t="e">
+      <c r="K13" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B13,",",C13,",""1""",",[_i,_i,_i,_i,_i,_i],[",G13/$C$1,",",H13/$C$1,",",I13*$C$1*0.000001,",",J13*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4325,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -4342,7 +4737,7 @@
       <c r="J14" s="1">
         <v>220</v>
       </c>
-      <c r="K14" s="9" t="e">
+      <c r="K14" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B14,",",C14,",""1""",",[_i,_i,_i,_i,_i,_i],[",G14/$C$1,",",H14/$C$1,",",I14*$C$1*0.000001,",",J14*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4361,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -4378,7 +4773,7 @@
       <c r="J15" s="1">
         <v>220</v>
       </c>
-      <c r="K15" s="9" t="e">
+      <c r="K15" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B15,",",C15,",""1""",",[_i,_i,_i,_i,_i,_i],[",G15/$C$1,",",H15/$C$1,",",I15*$C$1*0.000001,",",J15*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4397,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -4414,7 +4809,7 @@
       <c r="J16" s="1">
         <v>220</v>
       </c>
-      <c r="K16" s="9" t="e">
+      <c r="K16" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B16,",",C16,",""1""",",[_i,_i,_i,_i,_i,_i],[",G16/$C$1,",",H16/$C$1,",",I16*$C$1*0.000001,",",J16*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4433,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -4450,7 +4845,7 @@
       <c r="J17" s="1">
         <v>220</v>
       </c>
-      <c r="K17" s="9" t="e">
+      <c r="K17" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B17,",",C17,",""1""",",[_i,_i,_i,_i,_i,_i],[",G17/$C$1,",",H17/$C$1,",",I17*$C$1*0.000001,",",J17*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4469,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -4486,7 +4881,7 @@
       <c r="J18" s="1">
         <v>220</v>
       </c>
-      <c r="K18" s="9" t="e">
+      <c r="K18" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B18,",",C18,",""1""",",[_i,_i,_i,_i,_i,_i],[",G18/$C$1,",",H18/$C$1,",",I18*$C$1*0.000001,",",J18*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4505,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -4522,7 +4917,7 @@
       <c r="J19" s="1">
         <v>220</v>
       </c>
-      <c r="K19" s="9" t="e">
+      <c r="K19" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B19,",",C19,",""1""",",[_i,_i,_i,_i,_i,_i],[",G19/$C$1,",",H19/$C$1,",",I19*$C$1*0.000001,",",J19*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4558,7 +4953,7 @@
       <c r="J20" s="1">
         <v>220</v>
       </c>
-      <c r="K20" s="9" t="e">
+      <c r="K20" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B20,",",C20,",""1""",",[_i,_i,_i,_i,_i,_i],[",G20/$C$1,",",H20/$C$1,",",I20*$C$1*0.000001,",",J20*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4594,7 +4989,7 @@
       <c r="J21" s="1">
         <v>220</v>
       </c>
-      <c r="K21" s="9" t="e">
+      <c r="K21" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B21,",",C21,",""1""",",[_i,_i,_i,_i,_i,_i],[",G21/$C$1,",",H21/$C$1,",",I21*$C$1*0.000001,",",J21*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4630,7 +5025,7 @@
       <c r="J22" s="1">
         <v>220</v>
       </c>
-      <c r="K22" s="9" t="e">
+      <c r="K22" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B22,",",C22,",""1""",",[_i,_i,_i,_i,_i,_i],[",G22/$C$1,",",H22/$C$1,",",I22*$C$1*0.000001,",",J22*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4666,7 +5061,7 @@
       <c r="J23" s="1">
         <v>220</v>
       </c>
-      <c r="K23" s="9" t="e">
+      <c r="K23" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B23,",",C23,",""1""",",[_i,_i,_i,_i,_i,_i],[",G23/$C$1,",",H23/$C$1,",",I23*$C$1*0.000001,",",J23*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4702,7 +5097,7 @@
       <c r="J24" s="1">
         <v>220</v>
       </c>
-      <c r="K24" s="9" t="e">
+      <c r="K24" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B24,",",C24,",""1""",",[_i,_i,_i,_i,_i,_i],[",G24/$C$1,",",H24/$C$1,",",I24*$C$1*0.000001,",",J24*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4738,7 +5133,7 @@
       <c r="J25" s="1">
         <v>220</v>
       </c>
-      <c r="K25" s="9" t="e">
+      <c r="K25" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B25,",",C25,",""1""",",[_i,_i,_i,_i,_i,_i],[",G25/$C$1,",",H25/$C$1,",",I25*$C$1*0.000001,",",J25*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4774,7 +5169,7 @@
       <c r="J26" s="1">
         <v>220</v>
       </c>
-      <c r="K26" s="9" t="e">
+      <c r="K26" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B26,",",C26,",""1""",",[_i,_i,_i,_i,_i,_i],[",G26/$C$1,",",H26/$C$1,",",I26*$C$1*0.000001,",",J26*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4810,7 +5205,7 @@
       <c r="J27" s="1">
         <v>220</v>
       </c>
-      <c r="K27" s="9" t="e">
+      <c r="K27" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B27,",",C27,",""1""",",[_i,_i,_i,_i,_i,_i],[",G27/$C$1,",",H27/$C$1,",",I27*$C$1*0.000001,",",J27*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4846,7 +5241,7 @@
       <c r="J28" s="1">
         <v>220</v>
       </c>
-      <c r="K28" s="9" t="e">
+      <c r="K28" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B28,",",C28,",""1""",",[_i,_i,_i,_i,_i,_i],[",G28/$C$1,",",H28/$C$1,",",I28*$C$1*0.000001,",",J28*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4882,7 +5277,7 @@
       <c r="J29" s="1">
         <v>220</v>
       </c>
-      <c r="K29" s="9" t="e">
+      <c r="K29" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B29,",",C29,",""1""",",[_i,_i,_i,_i,_i,_i],[",G29/$C$1,",",H29/$C$1,",",I29*$C$1*0.000001,",",J29*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4901,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -4918,7 +5313,7 @@
       <c r="J30" s="1">
         <v>220</v>
       </c>
-      <c r="K30" s="9" t="e">
+      <c r="K30" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B30,",",C30,",""1""",",[_i,_i,_i,_i,_i,_i],[",G30/$C$1,",",H30/$C$1,",",I30*$C$1*0.000001,",",J30*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4937,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -4954,7 +5349,7 @@
       <c r="J31" s="1">
         <v>220</v>
       </c>
-      <c r="K31" s="9" t="e">
+      <c r="K31" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B31,",",C31,",""1""",",[_i,_i,_i,_i,_i,_i],[",G31/$C$1,",",H31/$C$1,",",I31*$C$1*0.000001,",",J31*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -4973,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
@@ -4990,7 +5385,7 @@
       <c r="J32" s="1">
         <v>220</v>
       </c>
-      <c r="K32" s="9" t="e">
+      <c r="K32" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B32,",",C32,",""1""",",[_i,_i,_i,_i,_i,_i],[",G32/$C$1,",",H32/$C$1,",",I32*$C$1*0.000001,",",J32*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -5009,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -5026,7 +5421,7 @@
       <c r="J33" s="1">
         <v>220</v>
       </c>
-      <c r="K33" s="9" t="e">
+      <c r="K33" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B33,",",C33,",""1""",",[_i,_i,_i,_i,_i,_i],[",G33/$C$1,",",H33/$C$1,",",I33*$C$1*0.000001,",",J33*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -5062,187 +5457,187 @@
       <c r="J34" s="1">
         <v>220</v>
       </c>
-      <c r="K34" s="9" t="e">
+      <c r="K34" s="8" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B34,",",C34,",""1""",",[_i,_i,_i,_i,_i,_i],[",G34/$C$1,",",H34/$C$1,",",I34*$C$1*0.000001,",",J34*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+    <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>25</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>29</v>
       </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
         <v>0.5</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <v>0.5</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <v>0</v>
       </c>
       <c r="J35" s="1">
         <v>220</v>
       </c>
-      <c r="K35" s="10" t="e">
+      <c r="K35" s="9" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B35,",",C35,",""1""",",[_i,_i,_i,_i,_i,_i],[",G35/$C$1,",",H35/$C$1,",",I35*$C$1*0.000001,",",J35*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+    <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>8</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>21</v>
       </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6">
-        <v>1</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
         <v>2</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>2</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <v>0</v>
       </c>
       <c r="J36" s="1">
         <v>220</v>
       </c>
-      <c r="K36" s="10" t="e">
+      <c r="K36" s="9" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B36,",",C36,",""1""",",[_i,_i,_i,_i,_i,_i],[",G36/$C$1,",",H36/$C$1,",",I36*$C$1*0.000001,",",J36*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+    <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>12</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>22</v>
       </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6">
         <v>2</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>2</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <v>0</v>
       </c>
       <c r="J37" s="1">
         <v>220</v>
       </c>
-      <c r="K37" s="10" t="e">
+      <c r="K37" s="9" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B37,",",C37,",""1""",",[_i,_i,_i,_i,_i,_i],[",G37/$C$1,",",H37/$C$1,",",I37*$C$1*0.000001,",",J37*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+    <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>9</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>15</v>
       </c>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1</v>
-      </c>
-      <c r="F38" s="6">
-        <v>1</v>
-      </c>
-      <c r="G38" s="7">
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6">
         <v>2</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <v>2</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="5">
         <v>0</v>
       </c>
       <c r="J38" s="1">
         <v>220</v>
       </c>
-      <c r="K38" s="10" t="e">
+      <c r="K38" s="9" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B38,",",C38,",""1""",",[_i,_i,_i,_i,_i,_i],[",G38/$C$1,",",H38/$C$1,",",I38*$C$1*0.000001,",",J38*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+    <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>18</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>33</v>
       </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
-        <v>1</v>
-      </c>
-      <c r="G39" s="7">
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6">
         <v>0.5</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <v>0.5</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <v>0</v>
       </c>
       <c r="J39" s="1">
         <v>220</v>
       </c>
-      <c r="K39" s="10" t="e">
+      <c r="K39" s="9" t="e">
         <f ca="1">_xlfn.CONCAT("psspy.branch_data(",B39,",",C39,",""1""",",[_i,_i,_i,_i,_i,_i],[",G39/$C$1,",",H39/$C$1,",",I39*$C$1*0.000001,",",J39*[1]BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
         <v>#NAME?</v>
       </c>
@@ -5293,10 +5688,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH64"/>
+  <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5416,1223 +5811,1359 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="D3">
-        <v>0.97</v>
+        <v>0.45</v>
       </c>
       <c r="E3">
-        <v>0.99</v>
+        <v>0.43</v>
       </c>
       <c r="F3">
-        <v>0.97</v>
+        <v>0.42</v>
       </c>
       <c r="G3">
-        <v>0.97</v>
+        <v>0.45</v>
       </c>
       <c r="H3">
-        <v>0.97</v>
+        <v>0.47</v>
       </c>
       <c r="I3">
-        <v>0.98</v>
+        <v>0.47</v>
       </c>
       <c r="J3">
-        <v>0.98</v>
+        <v>0.48</v>
       </c>
       <c r="K3">
-        <v>0.99</v>
+        <v>0.44</v>
       </c>
       <c r="L3">
-        <v>0.97</v>
+        <v>0.42</v>
       </c>
       <c r="M3">
-        <v>0.97</v>
+        <v>0.47</v>
       </c>
       <c r="N3">
-        <v>0.97</v>
+        <v>0.44</v>
       </c>
       <c r="O3">
-        <v>0.98</v>
+        <v>0.44</v>
       </c>
       <c r="P3">
-        <v>0.98</v>
+        <v>0.46</v>
       </c>
       <c r="Q3">
-        <v>0.98</v>
+        <v>0.42</v>
       </c>
       <c r="R3">
-        <v>0.98</v>
+        <v>0.47</v>
       </c>
       <c r="S3">
-        <v>0.97</v>
+        <v>0.43</v>
       </c>
       <c r="T3">
-        <v>0.99</v>
+        <v>0.43</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="W3">
-        <v>0.99</v>
+        <v>0.43</v>
       </c>
       <c r="X3">
-        <v>0.99</v>
+        <v>0.43</v>
       </c>
       <c r="Y3">
-        <v>0.98</v>
+        <v>0.43</v>
       </c>
       <c r="Z3">
-        <v>0.97</v>
+        <v>0.45</v>
       </c>
       <c r="AA3">
-        <v>0.98</v>
+        <v>0.46</v>
       </c>
       <c r="AB3">
-        <v>0.98</v>
+        <v>0.47</v>
       </c>
       <c r="AC3">
-        <v>0.98</v>
+        <v>0.45</v>
       </c>
       <c r="AD3">
-        <v>0.99</v>
+        <v>0.47</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="AF3">
-        <v>0.99</v>
+        <v>0.42</v>
       </c>
       <c r="AG3">
-        <v>0.97</v>
+        <v>0.45</v>
       </c>
       <c r="AH3">
-        <v>0.99</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
+        <v>0.43</v>
+      </c>
+      <c r="F4">
+        <v>0.37</v>
+      </c>
+      <c r="G4">
+        <v>0.4</v>
+      </c>
+      <c r="H4">
+        <v>0.4</v>
+      </c>
+      <c r="I4">
+        <v>0.43</v>
+      </c>
+      <c r="J4">
+        <v>0.42</v>
+      </c>
+      <c r="K4">
+        <v>0.37</v>
+      </c>
+      <c r="L4">
+        <v>0.4</v>
+      </c>
+      <c r="M4">
+        <v>0.37</v>
+      </c>
+      <c r="N4">
+        <v>0.43</v>
+      </c>
+      <c r="O4">
+        <v>0.37</v>
+      </c>
+      <c r="P4">
+        <v>0.4</v>
+      </c>
+      <c r="Q4">
+        <v>0.41</v>
+      </c>
+      <c r="R4">
+        <v>0.39</v>
+      </c>
+      <c r="S4">
+        <v>0.42</v>
+      </c>
+      <c r="T4">
+        <v>0.4</v>
+      </c>
+      <c r="U4">
+        <v>0.37</v>
+      </c>
+      <c r="V4">
+        <v>0.39</v>
+      </c>
+      <c r="W4">
+        <v>0.43</v>
+      </c>
+      <c r="X4">
+        <v>0.42</v>
+      </c>
+      <c r="Y4">
+        <v>0.37</v>
+      </c>
+      <c r="Z4">
+        <v>0.37</v>
+      </c>
+      <c r="AA4">
+        <v>0.42</v>
+      </c>
+      <c r="AB4">
+        <v>0.42</v>
+      </c>
+      <c r="AC4">
+        <v>0.43</v>
+      </c>
+      <c r="AD4">
+        <v>0.42</v>
+      </c>
+      <c r="AE4">
+        <v>0.37</v>
+      </c>
+      <c r="AF4">
+        <v>0.39</v>
+      </c>
+      <c r="AG4">
+        <v>0.38</v>
+      </c>
+      <c r="AH4">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.35</v>
+      </c>
+      <c r="D5">
+        <v>0.34</v>
+      </c>
+      <c r="E5">
+        <v>0.34</v>
+      </c>
+      <c r="F5">
+        <v>0.32</v>
+      </c>
+      <c r="G5">
+        <v>0.33</v>
+      </c>
+      <c r="H5">
+        <v>0.36</v>
+      </c>
+      <c r="I5">
+        <v>0.36</v>
+      </c>
+      <c r="J5">
+        <v>0.33</v>
+      </c>
+      <c r="K5">
+        <v>0.35</v>
+      </c>
+      <c r="L5">
+        <v>0.34</v>
+      </c>
+      <c r="M5">
+        <v>0.33</v>
+      </c>
+      <c r="N5">
+        <v>0.33</v>
+      </c>
+      <c r="O5">
+        <v>0.36</v>
+      </c>
+      <c r="P5">
+        <v>0.38</v>
+      </c>
+      <c r="Q5">
+        <v>0.38</v>
+      </c>
+      <c r="R5">
+        <v>0.36</v>
+      </c>
+      <c r="S5">
+        <v>0.33</v>
+      </c>
+      <c r="T5">
+        <v>0.35</v>
+      </c>
+      <c r="U5">
+        <v>0.32</v>
+      </c>
+      <c r="V5">
+        <v>0.35</v>
+      </c>
+      <c r="W5">
+        <v>0.35</v>
+      </c>
+      <c r="X5">
+        <v>0.36</v>
+      </c>
+      <c r="Y5">
+        <v>0.36</v>
+      </c>
+      <c r="Z5">
+        <v>0.33</v>
+      </c>
+      <c r="AA5">
+        <v>0.38</v>
+      </c>
+      <c r="AB5">
+        <v>0.37</v>
+      </c>
+      <c r="AC5">
+        <v>0.36</v>
+      </c>
+      <c r="AD5">
+        <v>0.35</v>
+      </c>
+      <c r="AE5">
+        <v>0.33</v>
+      </c>
+      <c r="AF5">
+        <v>0.38</v>
+      </c>
+      <c r="AG5">
+        <v>0.37</v>
+      </c>
+      <c r="AH5">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="D6">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="E6">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="F6">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="G6">
-        <v>0.45</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H6">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="I6">
-        <v>0.47</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J6">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="K6">
-        <v>0.44</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L6">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="M6">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
       <c r="N6">
-        <v>0.44</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O6">
-        <v>0.44</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P6">
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
       <c r="Q6">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="R6">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
       <c r="S6">
-        <v>0.43</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="T6">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="U6">
-        <v>0.44</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V6">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="W6">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="X6">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="Y6">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="Z6">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="AA6">
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
       <c r="AB6">
-        <v>0.47</v>
+        <v>0.31</v>
       </c>
       <c r="AC6">
-        <v>0.45</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AD6">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="AE6">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="AF6">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="AG6">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="AH6">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="D7">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="E7">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="F7">
-        <v>0.37</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G7">
-        <v>0.4</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H7">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="I7">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="J7">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="K7">
-        <v>0.37</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L7">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="M7">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="N7">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="O7">
-        <v>0.37</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P7">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Q7">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
       <c r="R7">
-        <v>0.39</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S7">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="T7">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="U7">
-        <v>0.37</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V7">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="W7">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="X7">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="Y7">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="Z7">
-        <v>0.37</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AA7">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="AB7">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="AC7">
-        <v>0.43</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AD7">
-        <v>0.42</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AE7">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="AF7">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="AG7">
-        <v>0.38</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AH7">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="E8">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="F8">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="G8">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="H8">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="I8">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="J8">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="K8">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="L8">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="M8">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="N8">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="O8">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="P8">
+        <v>0.4</v>
+      </c>
+      <c r="Q8">
+        <v>0.42</v>
+      </c>
+      <c r="R8">
+        <v>0.42</v>
+      </c>
+      <c r="S8">
+        <v>0.4</v>
+      </c>
+      <c r="T8">
+        <v>0.42</v>
+      </c>
+      <c r="U8">
+        <v>0.39</v>
+      </c>
+      <c r="V8">
+        <v>0.37</v>
+      </c>
+      <c r="W8">
         <v>0.38</v>
       </c>
-      <c r="Q8">
+      <c r="X8">
+        <v>0.39</v>
+      </c>
+      <c r="Y8">
+        <v>0.41</v>
+      </c>
+      <c r="Z8">
+        <v>0.39</v>
+      </c>
+      <c r="AA8">
+        <v>0.39</v>
+      </c>
+      <c r="AB8">
         <v>0.38</v>
       </c>
-      <c r="R8">
-        <v>0.36</v>
-      </c>
-      <c r="S8">
-        <v>0.33</v>
-      </c>
-      <c r="T8">
-        <v>0.35</v>
-      </c>
-      <c r="U8">
-        <v>0.32</v>
-      </c>
-      <c r="V8">
-        <v>0.35</v>
-      </c>
-      <c r="W8">
-        <v>0.35</v>
-      </c>
-      <c r="X8">
-        <v>0.36</v>
-      </c>
-      <c r="Y8">
-        <v>0.36</v>
-      </c>
-      <c r="Z8">
-        <v>0.33</v>
-      </c>
-      <c r="AA8">
+      <c r="AC8">
+        <v>0.42</v>
+      </c>
+      <c r="AD8">
+        <v>0.42</v>
+      </c>
+      <c r="AE8">
+        <v>0.42</v>
+      </c>
+      <c r="AF8">
+        <v>0.39</v>
+      </c>
+      <c r="AG8">
+        <v>0.4</v>
+      </c>
+      <c r="AH8">
         <v>0.38</v>
-      </c>
-      <c r="AB8">
-        <v>0.37</v>
-      </c>
-      <c r="AC8">
-        <v>0.36</v>
-      </c>
-      <c r="AD8">
-        <v>0.35</v>
-      </c>
-      <c r="AE8">
-        <v>0.33</v>
-      </c>
-      <c r="AF8">
-        <v>0.38</v>
-      </c>
-      <c r="AG8">
-        <v>0.37</v>
-      </c>
-      <c r="AH8">
-        <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="D9">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="E9">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="F9">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="G9">
-        <v>0.28999999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="H9">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="I9">
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="J9">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="K9">
-        <v>0.28000000000000003</v>
+        <v>0.41</v>
       </c>
       <c r="L9">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="M9">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="N9">
-        <v>0.28999999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="O9">
-        <v>0.28999999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="P9">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Q9">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="R9">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="S9">
-        <v>0.28999999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="T9">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="U9">
-        <v>0.28000000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="V9">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="W9">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="X9">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="Y9">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="Z9">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="AA9">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="AB9">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
       <c r="AC9">
-        <v>0.28999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="AD9">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AE9">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="AF9">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AG9">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AH9">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.27</v>
+        <v>0.7</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0.3</v>
+        <v>0.67</v>
       </c>
       <c r="F10">
-        <v>0.28999999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="G10">
-        <v>0.28000000000000003</v>
+        <v>0.73</v>
       </c>
       <c r="H10">
-        <v>0.24</v>
+        <v>0.73</v>
       </c>
       <c r="I10">
-        <v>0.27</v>
+        <v>0.68</v>
       </c>
       <c r="J10">
-        <v>0.26</v>
+        <v>0.72</v>
       </c>
       <c r="K10">
-        <v>0.28000000000000003</v>
+        <v>0.69</v>
       </c>
       <c r="L10">
-        <v>0.25</v>
+        <v>0.73</v>
       </c>
       <c r="M10">
-        <v>0.3</v>
+        <v>0.73</v>
       </c>
       <c r="N10">
-        <v>0.3</v>
+        <v>0.69</v>
       </c>
       <c r="O10">
-        <v>0.28999999999999998</v>
+        <v>0.68</v>
       </c>
       <c r="P10">
-        <v>0.25</v>
+        <v>0.73</v>
       </c>
       <c r="Q10">
-        <v>0.24</v>
+        <v>0.68</v>
       </c>
       <c r="R10">
-        <v>0.28000000000000003</v>
+        <v>0.72</v>
       </c>
       <c r="S10">
-        <v>0.26</v>
+        <v>0.73</v>
       </c>
       <c r="T10">
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
       <c r="U10">
-        <v>0.28000000000000003</v>
+        <v>0.71</v>
       </c>
       <c r="V10">
-        <v>0.3</v>
+        <v>0.73</v>
       </c>
       <c r="W10">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="X10">
-        <v>0.27</v>
+        <v>0.7</v>
       </c>
       <c r="Y10">
-        <v>0.26</v>
+        <v>0.73</v>
       </c>
       <c r="Z10">
-        <v>0.28000000000000003</v>
+        <v>0.71</v>
       </c>
       <c r="AA10">
-        <v>0.26</v>
+        <v>0.71</v>
       </c>
       <c r="AB10">
-        <v>0.27</v>
+        <v>0.72</v>
       </c>
       <c r="AC10">
-        <v>0.28999999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="AD10">
-        <v>0.28000000000000003</v>
+        <v>0.72</v>
       </c>
       <c r="AE10">
-        <v>0.27</v>
+        <v>0.67</v>
       </c>
       <c r="AF10">
-        <v>0.27</v>
+        <v>0.69</v>
       </c>
       <c r="AG10">
-        <v>0.28000000000000003</v>
+        <v>0.7</v>
       </c>
       <c r="AH10">
-        <v>0.26</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.88</v>
       </c>
       <c r="D11">
-        <v>0.43</v>
+        <v>0.87</v>
       </c>
       <c r="E11">
-        <v>0.4</v>
+        <v>0.88</v>
       </c>
       <c r="F11">
-        <v>0.42</v>
+        <v>0.85</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.87</v>
       </c>
       <c r="H11">
-        <v>0.38</v>
+        <v>0.87</v>
       </c>
       <c r="I11">
-        <v>0.41</v>
+        <v>0.86</v>
       </c>
       <c r="J11">
-        <v>0.43</v>
+        <v>0.87</v>
       </c>
       <c r="K11">
-        <v>0.4</v>
+        <v>0.91</v>
       </c>
       <c r="L11">
-        <v>0.41</v>
+        <v>0.85</v>
       </c>
       <c r="M11">
-        <v>0.4</v>
+        <v>0.86</v>
       </c>
       <c r="N11">
-        <v>0.37</v>
+        <v>0.91</v>
       </c>
       <c r="O11">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="P11">
-        <v>0.4</v>
+        <v>0.91</v>
       </c>
       <c r="Q11">
-        <v>0.42</v>
+        <v>0.88</v>
       </c>
       <c r="R11">
-        <v>0.42</v>
+        <v>0.91</v>
       </c>
       <c r="S11">
-        <v>0.4</v>
+        <v>0.88</v>
       </c>
       <c r="T11">
-        <v>0.42</v>
+        <v>0.9</v>
       </c>
       <c r="U11">
-        <v>0.39</v>
+        <v>0.86</v>
       </c>
       <c r="V11">
-        <v>0.37</v>
+        <v>0.89</v>
       </c>
       <c r="W11">
-        <v>0.38</v>
+        <v>0.86</v>
       </c>
       <c r="X11">
-        <v>0.39</v>
+        <v>0.89</v>
       </c>
       <c r="Y11">
-        <v>0.41</v>
+        <v>0.86</v>
       </c>
       <c r="Z11">
-        <v>0.39</v>
+        <v>0.88</v>
       </c>
       <c r="AA11">
-        <v>0.39</v>
+        <v>0.91</v>
       </c>
       <c r="AB11">
-        <v>0.38</v>
+        <v>0.86</v>
       </c>
       <c r="AC11">
-        <v>0.42</v>
+        <v>0.88</v>
       </c>
       <c r="AD11">
-        <v>0.42</v>
+        <v>0.91</v>
       </c>
       <c r="AE11">
-        <v>0.42</v>
+        <v>0.87</v>
       </c>
       <c r="AF11">
-        <v>0.39</v>
+        <v>0.88</v>
       </c>
       <c r="AG11">
-        <v>0.4</v>
+        <v>0.86</v>
       </c>
       <c r="AH11">
-        <v>0.38</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0.39</v>
+        <v>0.98</v>
       </c>
       <c r="F12">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.37</v>
+        <v>0.98</v>
       </c>
       <c r="H12">
-        <v>0.37</v>
+        <v>0.97</v>
       </c>
       <c r="I12">
-        <v>0.35</v>
+        <v>0.98</v>
       </c>
       <c r="J12">
-        <v>0.36</v>
+        <v>0.98</v>
       </c>
       <c r="K12">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.4</v>
+        <v>0.99</v>
       </c>
       <c r="M12">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0.39</v>
+        <v>0.98</v>
       </c>
       <c r="O12">
-        <v>0.38</v>
+        <v>0.99</v>
       </c>
       <c r="P12">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.39</v>
+        <v>0.98</v>
       </c>
       <c r="R12">
-        <v>0.35</v>
+        <v>0.98</v>
       </c>
       <c r="S12">
-        <v>0.39</v>
+        <v>0.99</v>
       </c>
       <c r="T12">
-        <v>0.39</v>
+        <v>0.99</v>
       </c>
       <c r="U12">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.39</v>
+        <v>0.99</v>
       </c>
       <c r="Z12">
-        <v>0.39</v>
+        <v>0.99</v>
       </c>
       <c r="AA12">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0.4</v>
+        <v>0.99</v>
       </c>
       <c r="AE12">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0.35</v>
+        <v>0.97</v>
       </c>
       <c r="AH12">
-        <v>0.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="D13">
-        <v>0.7</v>
+        <v>0.94</v>
       </c>
       <c r="E13">
-        <v>0.67</v>
+        <v>0.94</v>
       </c>
       <c r="F13">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="G13">
-        <v>0.73</v>
+        <v>0.95</v>
       </c>
       <c r="H13">
-        <v>0.73</v>
+        <v>0.94</v>
       </c>
       <c r="I13">
-        <v>0.68</v>
+        <v>0.97</v>
       </c>
       <c r="J13">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="K13">
-        <v>0.69</v>
+        <v>0.93</v>
       </c>
       <c r="L13">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="M13">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="N13">
-        <v>0.69</v>
+        <v>0.93</v>
       </c>
       <c r="O13">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
       <c r="P13">
-        <v>0.73</v>
+        <v>0.98</v>
       </c>
       <c r="Q13">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
       <c r="R13">
-        <v>0.72</v>
+        <v>0.93</v>
       </c>
       <c r="S13">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="T13">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="U13">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="V13">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="W13">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="X13">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="Y13">
-        <v>0.73</v>
+        <v>0.94</v>
       </c>
       <c r="Z13">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AA13">
-        <v>0.71</v>
+        <v>0.92</v>
       </c>
       <c r="AB13">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
       <c r="AC13">
-        <v>0.71</v>
+        <v>0.98</v>
       </c>
       <c r="AD13">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="AE13">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="AF13">
-        <v>0.69</v>
+        <v>0.94</v>
       </c>
       <c r="AG13">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="AH13">
-        <v>0.69</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="D14">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
       <c r="E14">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="F14">
-        <v>0.85</v>
+        <v>0.69</v>
       </c>
       <c r="G14">
-        <v>0.87</v>
+        <v>0.69</v>
       </c>
       <c r="H14">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
       <c r="I14">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="J14">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="K14">
-        <v>0.91</v>
+        <v>0.65</v>
       </c>
       <c r="L14">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="M14">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
       <c r="N14">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="O14">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="P14">
-        <v>0.91</v>
+        <v>0.66</v>
       </c>
       <c r="Q14">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
       <c r="R14">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="S14">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="T14">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="U14">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
       <c r="V14">
-        <v>0.89</v>
+        <v>0.69</v>
       </c>
       <c r="W14">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
       <c r="X14">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="Y14">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="Z14">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="AA14">
-        <v>0.91</v>
+        <v>0.68</v>
       </c>
       <c r="AB14">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AC14">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AD14">
-        <v>0.91</v>
+        <v>0.65</v>
       </c>
       <c r="AE14">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
       <c r="AF14">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="AG14">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="AH14">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="E15">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G15">
-        <v>0.98</v>
+        <v>0.81</v>
       </c>
       <c r="H15">
-        <v>0.97</v>
+        <v>0.81</v>
       </c>
       <c r="I15">
-        <v>0.98</v>
+        <v>0.84</v>
       </c>
       <c r="J15">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="L15">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="N15">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
       <c r="O15">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="Q15">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="R15">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="S15">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="T15">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y15">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="Z15">
-        <v>0.99</v>
+        <v>0.81</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AD15">
-        <v>0.99</v>
+        <v>0.81</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AF15">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AG15">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="AH15">
-        <v>1</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -6641,94 +7172,94 @@
         <v>0.95</v>
       </c>
       <c r="D16">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="E16">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="F16">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G16">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="H16">
         <v>0.94</v>
       </c>
       <c r="I16">
+        <v>0.93</v>
+      </c>
+      <c r="J16">
+        <v>0.92</v>
+      </c>
+      <c r="K16">
+        <v>0.94</v>
+      </c>
+      <c r="L16">
+        <v>0.98</v>
+      </c>
+      <c r="M16">
+        <v>0.95</v>
+      </c>
+      <c r="N16">
+        <v>0.96</v>
+      </c>
+      <c r="O16">
+        <v>0.95</v>
+      </c>
+      <c r="P16">
+        <v>0.94</v>
+      </c>
+      <c r="Q16">
+        <v>0.98</v>
+      </c>
+      <c r="R16">
+        <v>0.95</v>
+      </c>
+      <c r="S16">
         <v>0.97</v>
       </c>
-      <c r="J16">
-        <v>0.97</v>
-      </c>
-      <c r="K16">
+      <c r="T16">
+        <v>0.96</v>
+      </c>
+      <c r="U16">
+        <v>0.94</v>
+      </c>
+      <c r="V16">
+        <v>0.92</v>
+      </c>
+      <c r="W16">
+        <v>0.96</v>
+      </c>
+      <c r="X16">
+        <v>0.95</v>
+      </c>
+      <c r="Y16">
+        <v>0.95</v>
+      </c>
+      <c r="Z16">
+        <v>0.95</v>
+      </c>
+      <c r="AA16">
+        <v>0.98</v>
+      </c>
+      <c r="AB16">
+        <v>0.92</v>
+      </c>
+      <c r="AC16">
+        <v>0.96</v>
+      </c>
+      <c r="AD16">
+        <v>0.95</v>
+      </c>
+      <c r="AE16">
+        <v>0.95</v>
+      </c>
+      <c r="AF16">
+        <v>0.95</v>
+      </c>
+      <c r="AG16">
         <v>0.93</v>
-      </c>
-      <c r="L16">
-        <v>0.96</v>
-      </c>
-      <c r="M16">
-        <v>0.96</v>
-      </c>
-      <c r="N16">
-        <v>0.93</v>
-      </c>
-      <c r="O16">
-        <v>0.92</v>
-      </c>
-      <c r="P16">
-        <v>0.98</v>
-      </c>
-      <c r="Q16">
-        <v>0.92</v>
-      </c>
-      <c r="R16">
-        <v>0.93</v>
-      </c>
-      <c r="S16">
-        <v>0.96</v>
-      </c>
-      <c r="T16">
-        <v>0.97</v>
-      </c>
-      <c r="U16">
-        <v>0.96</v>
-      </c>
-      <c r="V16">
-        <v>0.96</v>
-      </c>
-      <c r="W16">
-        <v>0.93</v>
-      </c>
-      <c r="X16">
-        <v>0.93</v>
-      </c>
-      <c r="Y16">
-        <v>0.94</v>
-      </c>
-      <c r="Z16">
-        <v>0.97</v>
-      </c>
-      <c r="AA16">
-        <v>0.92</v>
-      </c>
-      <c r="AB16">
-        <v>0.96</v>
-      </c>
-      <c r="AC16">
-        <v>0.98</v>
-      </c>
-      <c r="AD16">
-        <v>0.97</v>
-      </c>
-      <c r="AE16">
-        <v>0.96</v>
-      </c>
-      <c r="AF16">
-        <v>0.94</v>
-      </c>
-      <c r="AG16">
-        <v>0.95</v>
       </c>
       <c r="AH16">
         <v>0.95</v>
@@ -6736,599 +7267,599 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.66</v>
+        <v>0.97</v>
       </c>
       <c r="E17">
-        <v>0.68</v>
+        <v>0.99</v>
       </c>
       <c r="F17">
-        <v>0.69</v>
+        <v>0.97</v>
       </c>
       <c r="G17">
-        <v>0.69</v>
+        <v>0.97</v>
       </c>
       <c r="H17">
-        <v>0.66</v>
+        <v>0.97</v>
       </c>
       <c r="I17">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="J17">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="K17">
-        <v>0.65</v>
+        <v>0.99</v>
       </c>
       <c r="L17">
-        <v>0.66</v>
+        <v>0.97</v>
       </c>
       <c r="M17">
-        <v>0.7</v>
+        <v>0.97</v>
       </c>
       <c r="N17">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0.7</v>
+        <v>0.98</v>
       </c>
       <c r="P17">
-        <v>0.66</v>
+        <v>0.98</v>
       </c>
       <c r="Q17">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="R17">
-        <v>0.7</v>
+        <v>0.98</v>
       </c>
       <c r="S17">
-        <v>0.7</v>
+        <v>0.97</v>
       </c>
       <c r="T17">
-        <v>0.7</v>
+        <v>0.99</v>
       </c>
       <c r="U17">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0.69</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="X17">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="Y17">
-        <v>0.68</v>
+        <v>0.98</v>
       </c>
       <c r="Z17">
-        <v>0.68</v>
+        <v>0.97</v>
       </c>
       <c r="AA17">
-        <v>0.68</v>
+        <v>0.98</v>
       </c>
       <c r="AB17">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="AC17">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="AD17">
-        <v>0.65</v>
+        <v>0.99</v>
       </c>
       <c r="AE17">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <v>0.68</v>
+        <v>0.99</v>
       </c>
       <c r="AG17">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AH17">
-        <v>0.65</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="D18">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="E18">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="F18">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="G18">
-        <v>0.81</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0.81</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="J18">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="K18">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="L18">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="N18">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="O18">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="P18">
-        <v>0.79</v>
+        <v>0.99</v>
       </c>
       <c r="Q18">
-        <v>0.79</v>
+        <v>0.98</v>
       </c>
       <c r="R18">
-        <v>0.79</v>
+        <v>0.99</v>
       </c>
       <c r="S18">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
       <c r="U18">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="V18">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="W18">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Y18">
-        <v>0.82</v>
+        <v>0.99</v>
       </c>
       <c r="Z18">
-        <v>0.81</v>
+        <v>0.97</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="AB18">
-        <v>0.81</v>
+        <v>0.96</v>
       </c>
       <c r="AC18">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="AD18">
-        <v>0.81</v>
+        <v>0.96</v>
       </c>
       <c r="AE18">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="AF18">
-        <v>0.79</v>
+        <v>0.99</v>
       </c>
       <c r="AG18">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="AH18">
-        <v>0.82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="D19">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="E19">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F19">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="G19">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="H19">
-        <v>0.94</v>
+        <v>0.84</v>
       </c>
       <c r="I19">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="J19">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="K19">
-        <v>0.94</v>
+        <v>0.84</v>
       </c>
       <c r="L19">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="M19">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="O19">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="P19">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
       <c r="Q19">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="R19">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="S19">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="T19">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="U19">
-        <v>0.94</v>
+        <v>0.8</v>
       </c>
       <c r="V19">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="W19">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="X19">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="Y19">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="AA19">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
       <c r="AB19">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="AC19">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="AD19">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AE19">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="AF19">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="AG19">
-        <v>0.93</v>
+        <v>0.81</v>
       </c>
       <c r="AH19">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D20">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="E20">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="F20">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="G20">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="H20">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="I20">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="J20">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="K20">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="L20">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="M20">
-        <v>0.97</v>
+        <v>0.81</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="O20">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="P20">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="Q20">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="R20">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="S20">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="T20">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="W20">
-        <v>0.99</v>
+        <v>0.77</v>
       </c>
       <c r="X20">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="Y20">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="Z20">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="AA20">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="AC20">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="AD20">
-        <v>0.99</v>
+        <v>0.78</v>
       </c>
       <c r="AE20">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AF20">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
       <c r="AG20">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="AH20">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="D21">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="E21">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F21">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="I21">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="J21">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="K21">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="M21">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="N21">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="O21">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="P21">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="Q21">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="R21">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="T21">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="U21">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="V21">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="X21">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="Y21">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="Z21">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="AA21">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="AB21">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="AC21">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="AD21">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="AE21">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="AF21">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="AG21">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="AH21">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22">
+        <v>0.85</v>
+      </c>
+      <c r="D22">
+        <v>0.82</v>
+      </c>
+      <c r="E22">
+        <v>0.88</v>
+      </c>
+      <c r="F22">
+        <v>0.87</v>
+      </c>
+      <c r="G22">
+        <v>0.88</v>
+      </c>
+      <c r="H22">
+        <v>0.82</v>
+      </c>
+      <c r="I22">
+        <v>0.84</v>
+      </c>
+      <c r="J22">
+        <v>0.84</v>
+      </c>
+      <c r="K22">
+        <v>0.87</v>
+      </c>
+      <c r="L22">
+        <v>0.88</v>
+      </c>
+      <c r="M22">
+        <v>0.87</v>
+      </c>
+      <c r="N22">
+        <v>0.84</v>
+      </c>
+      <c r="O22">
         <v>0.83</v>
       </c>
-      <c r="D22">
+      <c r="P22">
+        <v>0.84</v>
+      </c>
+      <c r="Q22">
+        <v>0.83</v>
+      </c>
+      <c r="R22">
+        <v>0.83</v>
+      </c>
+      <c r="S22">
+        <v>0.84</v>
+      </c>
+      <c r="T22">
+        <v>0.84</v>
+      </c>
+      <c r="U22">
         <v>0.86</v>
       </c>
-      <c r="E22">
-        <v>0.8</v>
-      </c>
-      <c r="F22">
+      <c r="V22">
+        <v>0.83</v>
+      </c>
+      <c r="W22">
+        <v>0.84</v>
+      </c>
+      <c r="X22">
+        <v>0.87</v>
+      </c>
+      <c r="Y22">
         <v>0.86</v>
-      </c>
-      <c r="G22">
-        <v>0.82</v>
-      </c>
-      <c r="H22">
-        <v>0.84</v>
-      </c>
-      <c r="I22">
-        <v>0.8</v>
-      </c>
-      <c r="J22">
-        <v>0.82</v>
-      </c>
-      <c r="K22">
-        <v>0.84</v>
-      </c>
-      <c r="L22">
-        <v>0.8</v>
-      </c>
-      <c r="M22">
-        <v>0.86</v>
-      </c>
-      <c r="N22">
-        <v>0.83</v>
-      </c>
-      <c r="O22">
-        <v>0.84</v>
-      </c>
-      <c r="P22">
-        <v>0.86</v>
-      </c>
-      <c r="Q22">
-        <v>0.86</v>
-      </c>
-      <c r="R22">
-        <v>0.8</v>
-      </c>
-      <c r="S22">
-        <v>0.8</v>
-      </c>
-      <c r="T22">
-        <v>0.83</v>
-      </c>
-      <c r="U22">
-        <v>0.8</v>
-      </c>
-      <c r="V22">
-        <v>0.84</v>
-      </c>
-      <c r="W22">
-        <v>0.85</v>
-      </c>
-      <c r="X22">
-        <v>0.85</v>
-      </c>
-      <c r="Y22">
-        <v>0.8</v>
       </c>
       <c r="Z22">
         <v>0.84</v>
@@ -7337,754 +7868,457 @@
         <v>0.82</v>
       </c>
       <c r="AB22">
+        <v>0.86</v>
+      </c>
+      <c r="AC22">
+        <v>0.85</v>
+      </c>
+      <c r="AD22">
+        <v>0.84</v>
+      </c>
+      <c r="AE22">
+        <v>0.87</v>
+      </c>
+      <c r="AF22">
+        <v>0.84</v>
+      </c>
+      <c r="AG22">
+        <v>0.86</v>
+      </c>
+      <c r="AH22">
         <v>0.82</v>
-      </c>
-      <c r="AC22">
-        <v>0.82</v>
-      </c>
-      <c r="AD22">
-        <v>0.8</v>
-      </c>
-      <c r="AE22">
-        <v>0.82</v>
-      </c>
-      <c r="AF22">
-        <v>0.86</v>
-      </c>
-      <c r="AG22">
-        <v>0.81</v>
-      </c>
-      <c r="AH22">
-        <v>0.85</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="D23">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="E23">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="F23">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="G23">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="H23">
-        <v>0.77</v>
+        <v>0.89</v>
       </c>
       <c r="I23">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="J23">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="K23">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="L23">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="M23">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
       <c r="N23">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="O23">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="P23">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
       <c r="Q23">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
       <c r="R23">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="S23">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
       <c r="T23">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="U23">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
       <c r="V23">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="W23">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="X23">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="Y23">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="Z23">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AB23">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="AC23">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="AD23">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AE23">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="AF23">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="AG23">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="AH23">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="D24">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="E24">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
       <c r="F24">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="G24">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="H24">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
       <c r="I24">
-        <v>0.88</v>
+        <v>0.74</v>
       </c>
       <c r="J24">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
       <c r="K24">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="L24">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="M24">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="N24">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="O24">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="P24">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="Q24">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="R24">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="S24">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="T24">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="U24">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="V24">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="W24">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="X24">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="Y24">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="Z24">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="AA24">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="AB24">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="AC24">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="AD24">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
       <c r="AE24">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="AF24">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="AG24">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="AH24">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="D25">
-        <v>0.82</v>
+        <v>0.61</v>
       </c>
       <c r="E25">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="F25">
-        <v>0.87</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G25">
-        <v>0.88</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H25">
-        <v>0.82</v>
+        <v>0.62</v>
       </c>
       <c r="I25">
-        <v>0.84</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J25">
-        <v>0.84</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K25">
-        <v>0.87</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L25">
-        <v>0.88</v>
+        <v>0.61</v>
       </c>
       <c r="M25">
-        <v>0.87</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N25">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
       <c r="O25">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="P25">
-        <v>0.84</v>
+        <v>0.61</v>
       </c>
       <c r="Q25">
-        <v>0.83</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="R25">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
       <c r="S25">
-        <v>0.84</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="T25">
-        <v>0.84</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U25">
-        <v>0.86</v>
+        <v>0.59</v>
       </c>
       <c r="V25">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
       <c r="W25">
-        <v>0.84</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="X25">
-        <v>0.87</v>
+        <v>0.61</v>
       </c>
       <c r="Y25">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="Z25">
-        <v>0.84</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AA25">
-        <v>0.82</v>
+        <v>0.59</v>
       </c>
       <c r="AB25">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="AC25">
-        <v>0.85</v>
+        <v>0.61</v>
       </c>
       <c r="AD25">
-        <v>0.84</v>
+        <v>0.61</v>
       </c>
       <c r="AE25">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
       <c r="AF25">
-        <v>0.84</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AG25">
-        <v>0.86</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AH25">
-        <v>0.82</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="D26">
-        <v>0.87</v>
+        <v>0.37</v>
       </c>
       <c r="E26">
-        <v>0.91</v>
+        <v>0.4</v>
       </c>
       <c r="F26">
-        <v>0.89</v>
+        <v>0.38</v>
       </c>
       <c r="G26">
-        <v>0.87</v>
+        <v>0.43</v>
       </c>
       <c r="H26">
-        <v>0.89</v>
+        <v>0.42</v>
       </c>
       <c r="I26">
-        <v>0.9</v>
+        <v>0.37</v>
       </c>
       <c r="J26">
-        <v>0.87</v>
+        <v>0.39</v>
       </c>
       <c r="K26">
-        <v>0.92</v>
+        <v>0.39</v>
       </c>
       <c r="L26">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="M26">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="N26">
-        <v>0.87</v>
+        <v>0.4</v>
       </c>
       <c r="O26">
-        <v>0.88</v>
+        <v>0.41</v>
       </c>
       <c r="P26">
-        <v>0.9</v>
+        <v>0.42</v>
       </c>
       <c r="Q26">
-        <v>0.91</v>
+        <v>0.42</v>
       </c>
       <c r="R26">
-        <v>0.86</v>
+        <v>0.41</v>
       </c>
       <c r="S26">
-        <v>0.87</v>
+        <v>0.38</v>
       </c>
       <c r="T26">
-        <v>0.89</v>
+        <v>0.41</v>
       </c>
       <c r="U26">
-        <v>0.9</v>
+        <v>0.37</v>
       </c>
       <c r="V26">
-        <v>0.86</v>
+        <v>0.37</v>
       </c>
       <c r="W26">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="X26">
-        <v>0.89</v>
+        <v>0.42</v>
       </c>
       <c r="Y26">
-        <v>0.92</v>
+        <v>0.41</v>
       </c>
       <c r="Z26">
-        <v>0.9</v>
+        <v>0.38</v>
       </c>
       <c r="AA26">
-        <v>0.9</v>
+        <v>0.38</v>
       </c>
       <c r="AB26">
-        <v>0.9</v>
+        <v>0.43</v>
       </c>
       <c r="AC26">
-        <v>0.87</v>
+        <v>0.4</v>
       </c>
       <c r="AD26">
-        <v>0.89</v>
+        <v>0.37</v>
       </c>
       <c r="AE26">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AF26">
-        <v>0.91</v>
+        <v>0.39</v>
       </c>
       <c r="AG26">
-        <v>0.86</v>
+        <v>0.41</v>
       </c>
       <c r="AH26">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0.75</v>
-      </c>
-      <c r="D27">
-        <v>0.73</v>
-      </c>
-      <c r="E27">
-        <v>0.72</v>
-      </c>
-      <c r="F27">
-        <v>0.73</v>
-      </c>
-      <c r="G27">
-        <v>0.77</v>
-      </c>
-      <c r="H27">
-        <v>0.72</v>
-      </c>
-      <c r="I27">
-        <v>0.74</v>
-      </c>
-      <c r="J27">
-        <v>0.74</v>
-      </c>
-      <c r="K27">
-        <v>0.74</v>
-      </c>
-      <c r="L27">
-        <v>0.72</v>
-      </c>
-      <c r="M27">
-        <v>0.78</v>
-      </c>
-      <c r="N27">
-        <v>0.76</v>
-      </c>
-      <c r="O27">
-        <v>0.76</v>
-      </c>
-      <c r="P27">
-        <v>0.75</v>
-      </c>
-      <c r="Q27">
-        <v>0.75</v>
-      </c>
-      <c r="R27">
-        <v>0.75</v>
-      </c>
-      <c r="S27">
-        <v>0.72</v>
-      </c>
-      <c r="T27">
-        <v>0.72</v>
-      </c>
-      <c r="U27">
-        <v>0.73</v>
-      </c>
-      <c r="V27">
-        <v>0.75</v>
-      </c>
-      <c r="W27">
-        <v>0.77</v>
-      </c>
-      <c r="X27">
-        <v>0.78</v>
-      </c>
-      <c r="Y27">
-        <v>0.73</v>
-      </c>
-      <c r="Z27">
-        <v>0.73</v>
-      </c>
-      <c r="AA27">
-        <v>0.76</v>
-      </c>
-      <c r="AB27">
-        <v>0.72</v>
-      </c>
-      <c r="AC27">
-        <v>0.78</v>
-      </c>
-      <c r="AD27">
-        <v>0.72</v>
-      </c>
-      <c r="AE27">
-        <v>0.73</v>
-      </c>
-      <c r="AF27">
-        <v>0.76</v>
-      </c>
-      <c r="AG27">
-        <v>0.73</v>
-      </c>
-      <c r="AH27">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0.6</v>
-      </c>
-      <c r="D28">
-        <v>0.61</v>
-      </c>
-      <c r="E28">
-        <v>0.6</v>
-      </c>
-      <c r="F28">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G28">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H28">
-        <v>0.62</v>
-      </c>
-      <c r="I28">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J28">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K28">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L28">
-        <v>0.61</v>
-      </c>
-      <c r="M28">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N28">
-        <v>0.6</v>
-      </c>
-      <c r="O28">
-        <v>0.59</v>
-      </c>
-      <c r="P28">
-        <v>0.61</v>
-      </c>
-      <c r="Q28">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="R28">
-        <v>0.62</v>
-      </c>
-      <c r="S28">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="T28">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="U28">
-        <v>0.59</v>
-      </c>
-      <c r="V28">
-        <v>0.62</v>
-      </c>
-      <c r="W28">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="X28">
-        <v>0.61</v>
-      </c>
-      <c r="Y28">
-        <v>0.62</v>
-      </c>
-      <c r="Z28">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AA28">
-        <v>0.59</v>
-      </c>
-      <c r="AB28">
-        <v>0.6</v>
-      </c>
-      <c r="AC28">
-        <v>0.61</v>
-      </c>
-      <c r="AD28">
-        <v>0.61</v>
-      </c>
-      <c r="AE28">
-        <v>0.63</v>
-      </c>
-      <c r="AF28">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AG28">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AH28">
-        <v>0.61</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0.4</v>
-      </c>
-      <c r="D29">
-        <v>0.37</v>
-      </c>
-      <c r="E29">
-        <v>0.4</v>
-      </c>
-      <c r="F29">
-        <v>0.38</v>
-      </c>
-      <c r="G29">
-        <v>0.43</v>
-      </c>
-      <c r="H29">
-        <v>0.42</v>
-      </c>
-      <c r="I29">
-        <v>0.37</v>
-      </c>
-      <c r="J29">
-        <v>0.39</v>
-      </c>
-      <c r="K29">
-        <v>0.39</v>
-      </c>
-      <c r="L29">
-        <v>0.43</v>
-      </c>
-      <c r="M29">
-        <v>0.4</v>
-      </c>
-      <c r="N29">
-        <v>0.4</v>
-      </c>
-      <c r="O29">
-        <v>0.41</v>
-      </c>
-      <c r="P29">
-        <v>0.42</v>
-      </c>
-      <c r="Q29">
-        <v>0.42</v>
-      </c>
-      <c r="R29">
-        <v>0.41</v>
-      </c>
-      <c r="S29">
-        <v>0.38</v>
-      </c>
-      <c r="T29">
-        <v>0.41</v>
-      </c>
-      <c r="U29">
-        <v>0.37</v>
-      </c>
-      <c r="V29">
-        <v>0.37</v>
-      </c>
-      <c r="W29">
-        <v>0.4</v>
-      </c>
-      <c r="X29">
-        <v>0.42</v>
-      </c>
-      <c r="Y29">
-        <v>0.41</v>
-      </c>
-      <c r="Z29">
-        <v>0.38</v>
-      </c>
-      <c r="AA29">
-        <v>0.38</v>
-      </c>
-      <c r="AB29">
-        <v>0.43</v>
-      </c>
-      <c r="AC29">
-        <v>0.4</v>
-      </c>
-      <c r="AD29">
-        <v>0.37</v>
-      </c>
-      <c r="AE29">
-        <v>0.43</v>
-      </c>
-      <c r="AF29">
-        <v>0.39</v>
-      </c>
-      <c r="AG29">
-        <v>0.41</v>
-      </c>
-      <c r="AH29">
-        <v>0.38</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
@@ -8235,21 +8469,6 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8260,10 +8479,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8298,249 +8517,217 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>IF(LOADPROFILE!C3&lt;0.6,1.02,IF(LOADPROFILE!C3&gt;0.9,1.05,1.03))</f>
         <v>1.02</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>IF(LOADPROFILE!C4&lt;0.6,1.02,IF(LOADPROFILE!C4&gt;0.9,1.05,1.03))</f>
+        <v>1.02</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
+        <f>IF(LOADPROFILE!C5&lt;0.6,1.02,IF(LOADPROFILE!C5&gt;0.9,1.05,1.03))</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <f>IF(LOADPROFILE!C6&lt;0.6,1.02,IF(LOADPROFILE!C6&gt;0.9,1.05,1.03))</f>
         <v>1.02</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <f>IF(LOADPROFILE!C7&lt;0.6,1.02,IF(LOADPROFILE!C7&gt;0.9,1.05,1.03))</f>
         <v>1.02</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <f>IF(LOADPROFILE!C8&lt;0.6,1.02,IF(LOADPROFILE!C8&gt;0.9,1.05,1.03))</f>
         <v>1.02</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <f>IF(LOADPROFILE!C9&lt;0.6,1.02,IF(LOADPROFILE!C9&gt;0.9,1.05,1.03))</f>
         <v>1.02</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <f>IF(LOADPROFILE!C10&lt;0.6,1.02,IF(LOADPROFILE!C10&gt;0.9,1.05,1.03))</f>
-        <v>1.02</v>
-      </c>
-    </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <f>IF(LOADPROFILE!C11&lt;0.6,1.02,IF(LOADPROFILE!C11&gt;0.9,1.05,1.03))</f>
-        <v>1.02</v>
+        <f>IF(LOADPROFILE!C10&lt;0.6,1.02,IF(LOADPROFILE!C10&gt;0.9,1.05,1.03))</f>
+        <v>1.03</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <f>IF(LOADPROFILE!C12&lt;0.6,1.02,IF(LOADPROFILE!C12&gt;0.9,1.05,1.03))</f>
-        <v>1.02</v>
+        <f>IF(LOADPROFILE!C11&lt;0.6,1.02,IF(LOADPROFILE!C11&gt;0.9,1.05,1.03))</f>
+        <v>1.03</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <f>IF(LOADPROFILE!C13&lt;0.6,1.02,IF(LOADPROFILE!C13&gt;0.9,1.05,1.03))</f>
-        <v>1.03</v>
+        <f>IF(LOADPROFILE!C12&lt;0.6,1.02,IF(LOADPROFILE!C12&gt;0.9,1.05,1.03))</f>
+        <v>1.05</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13">
+        <f>IF(LOADPROFILE!C13&lt;0.6,1.02,IF(LOADPROFILE!C13&gt;0.9,1.05,1.03))</f>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <f>IF(LOADPROFILE!C14&lt;0.6,1.02,IF(LOADPROFILE!C14&gt;0.9,1.05,1.03))</f>
         <v>1.03</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <f>IF(LOADPROFILE!C15&lt;0.6,1.02,IF(LOADPROFILE!C15&gt;0.9,1.05,1.03))</f>
-        <v>1.05</v>
-      </c>
-    </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15">
+        <f>IF(LOADPROFILE!C15&lt;0.6,1.02,IF(LOADPROFILE!C15&gt;0.9,1.05,1.03))</f>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <f>IF(LOADPROFILE!C16&lt;0.6,1.02,IF(LOADPROFILE!C16&gt;0.9,1.05,1.03))</f>
         <v>1.05</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <f>IF(LOADPROFILE!C17&lt;0.6,1.02,IF(LOADPROFILE!C17&gt;0.9,1.05,1.03))</f>
-        <v>1.03</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <f>IF(LOADPROFILE!C18&lt;0.6,1.02,IF(LOADPROFILE!C18&gt;0.9,1.05,1.03))</f>
-        <v>1.03</v>
+        <f>IF(LOADPROFILE!C17&lt;0.6,1.02,IF(LOADPROFILE!C17&gt;0.9,1.05,1.03))</f>
+        <v>1.05</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <f>IF(LOADPROFILE!C19&lt;0.6,1.02,IF(LOADPROFILE!C19&gt;0.9,1.05,1.03))</f>
+        <f>IF(LOADPROFILE!C18&lt;0.6,1.02,IF(LOADPROFILE!C18&gt;0.9,1.05,1.03))</f>
         <v>1.05</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <f>IF(LOADPROFILE!C20&lt;0.6,1.02,IF(LOADPROFILE!C20&gt;0.9,1.05,1.03))</f>
-        <v>1.05</v>
+        <f>IF(LOADPROFILE!C19&lt;0.6,1.02,IF(LOADPROFILE!C19&gt;0.9,1.05,1.03))</f>
+        <v>1.03</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <f>IF(LOADPROFILE!C21&lt;0.6,1.02,IF(LOADPROFILE!C21&gt;0.9,1.05,1.03))</f>
-        <v>1.05</v>
+        <f>IF(LOADPROFILE!C20&lt;0.6,1.02,IF(LOADPROFILE!C20&gt;0.9,1.05,1.03))</f>
+        <v>1.03</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21">
+        <f>IF(LOADPROFILE!C21&lt;0.6,1.02,IF(LOADPROFILE!C21&gt;0.9,1.05,1.03))</f>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <f>IF(LOADPROFILE!C22&lt;0.6,1.02,IF(LOADPROFILE!C22&gt;0.9,1.05,1.03))</f>
         <v>1.03</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <f>IF(LOADPROFILE!C23&lt;0.6,1.02,IF(LOADPROFILE!C23&gt;0.9,1.05,1.03))</f>
         <v>1.03</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <f>IF(LOADPROFILE!C24&lt;0.6,1.02,IF(LOADPROFILE!C24&gt;0.9,1.05,1.03))</f>
         <v>1.03</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
         <f>IF(LOADPROFILE!C25&lt;0.6,1.02,IF(LOADPROFILE!C25&gt;0.9,1.05,1.03))</f>
         <v>1.03</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <f>IF(LOADPROFILE!C26&lt;0.6,1.02,IF(LOADPROFILE!C26&gt;0.9,1.05,1.03))</f>
-        <v>1.03</v>
-      </c>
-    </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <f>IF(LOADPROFILE!C27&lt;0.6,1.02,IF(LOADPROFILE!C27&gt;0.9,1.05,1.03))</f>
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <f>IF(LOADPROFILE!C28&lt;0.6,1.02,IF(LOADPROFILE!C28&gt;0.9,1.05,1.03))</f>
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <f>IF(LOADPROFILE!C29&lt;0.6,1.02,IF(LOADPROFILE!C29&gt;0.9,1.05,1.03))</f>
+        <f>IF(LOADPROFILE!C26&lt;0.6,1.02,IF(LOADPROFILE!C26&gt;0.9,1.05,1.03))</f>
         <v>1.02</v>
       </c>
     </row>
@@ -8552,10 +8739,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8563,223 +8750,884 @@
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.15</v>
+      </c>
+      <c r="C10">
+        <v>0.15</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
+        <v>0.2</v>
+      </c>
+      <c r="G10">
+        <v>0.15</v>
+      </c>
+      <c r="H10">
+        <v>0.15</v>
+      </c>
+      <c r="I10">
+        <v>0.2</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.3</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <v>0.4</v>
+      </c>
+      <c r="E11">
+        <v>0.4</v>
+      </c>
+      <c r="F11">
+        <v>0.4</v>
+      </c>
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+      <c r="I11">
+        <v>0.4</v>
+      </c>
+      <c r="J11">
+        <v>0.4</v>
+      </c>
+      <c r="K11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.35</v>
+      </c>
+      <c r="C12">
+        <v>0.35</v>
+      </c>
+      <c r="D12">
+        <v>0.75</v>
+      </c>
+      <c r="E12">
+        <v>0.75</v>
+      </c>
+      <c r="F12">
+        <v>0.75</v>
+      </c>
+      <c r="G12">
+        <v>0.35</v>
+      </c>
+      <c r="H12">
+        <v>0.35</v>
+      </c>
+      <c r="I12">
+        <v>0.75</v>
+      </c>
+      <c r="J12">
+        <v>0.75</v>
+      </c>
+      <c r="K12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.7</v>
+      </c>
+      <c r="C13">
+        <v>0.7</v>
+      </c>
+      <c r="D13">
+        <v>0.95</v>
+      </c>
+      <c r="E13">
+        <v>0.95</v>
+      </c>
+      <c r="F13">
+        <v>0.95</v>
+      </c>
+      <c r="G13">
+        <v>0.7</v>
+      </c>
+      <c r="H13">
+        <v>0.7</v>
+      </c>
+      <c r="I13">
+        <v>0.95</v>
+      </c>
+      <c r="J13">
+        <v>0.95</v>
+      </c>
+      <c r="K13">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.98</v>
+      </c>
+      <c r="C15">
+        <v>0.98</v>
+      </c>
+      <c r="D15">
+        <v>0.89</v>
+      </c>
+      <c r="E15">
+        <v>0.89</v>
+      </c>
+      <c r="F15">
+        <v>0.89</v>
+      </c>
+      <c r="G15">
+        <v>0.98</v>
+      </c>
+      <c r="H15">
+        <v>0.98</v>
+      </c>
+      <c r="I15">
+        <v>0.89</v>
+      </c>
+      <c r="J15">
+        <v>0.89</v>
+      </c>
+      <c r="K15">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.85</v>
+      </c>
+      <c r="C16">
+        <v>0.85</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.85</v>
+      </c>
+      <c r="H16">
+        <v>0.85</v>
+      </c>
+      <c r="I16">
+        <v>0.5</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+      <c r="K16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.76</v>
+      </c>
+      <c r="C17">
+        <v>0.76</v>
+      </c>
+      <c r="D17">
+        <v>0.4</v>
+      </c>
+      <c r="E17">
+        <v>0.4</v>
+      </c>
+      <c r="F17">
+        <v>0.4</v>
+      </c>
+      <c r="G17">
+        <v>0.76</v>
+      </c>
+      <c r="H17">
+        <v>0.76</v>
+      </c>
+      <c r="I17">
+        <v>0.4</v>
+      </c>
+      <c r="J17">
+        <v>0.4</v>
+      </c>
+      <c r="K17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D18">
+        <v>0.25</v>
+      </c>
+      <c r="E18">
+        <v>0.25</v>
+      </c>
+      <c r="F18">
+        <v>0.25</v>
+      </c>
+      <c r="G18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I18">
+        <v>0.25</v>
+      </c>
+      <c r="J18">
+        <v>0.25</v>
+      </c>
+      <c r="K18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+      <c r="C19">
+        <v>0.25</v>
+      </c>
+      <c r="D19">
+        <v>0.15</v>
+      </c>
+      <c r="E19">
+        <v>0.15</v>
+      </c>
+      <c r="F19">
+        <v>0.15</v>
+      </c>
+      <c r="G19">
+        <v>0.25</v>
+      </c>
+      <c r="H19">
+        <v>0.25</v>
+      </c>
+      <c r="I19">
+        <v>0.15</v>
+      </c>
+      <c r="J19">
+        <v>0.15</v>
+      </c>
+      <c r="K19">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+      <c r="D20">
+        <v>0.1</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.1</v>
+      </c>
+      <c r="I20">
+        <v>0.1</v>
+      </c>
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+      <c r="K20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="B28">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>0</v>
       </c>
     </row>
